--- a/Dados-covid-19-municipios.xlsx
+++ b/Dados-covid-19-municipios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Município</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Santo André</t>
+  </si>
+  <si>
+    <t>São Bernardo do Campo</t>
   </si>
 </sst>
 </file>
@@ -57,13 +60,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -104,10 +113,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -418,7 +427,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -429,7 +438,7 @@
     <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,103 +449,114 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1056708</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>42280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>159723</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>5067</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>122975</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>3066</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>111346</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>102995</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>3296</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>93633</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>3117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>81024</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>5383</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>80880</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1552</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>80077</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>3381</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>74581</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3637</v>
       </c>
     </row>
   </sheetData>
